--- a/similarities/split_global/harmonic_similarity_timestamps_20.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,694 +484,754 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>jaah_41</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_0</t>
+          <t>schubert-winterreise_95</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['A:min/C', 'D:7', 'G:maj'], ['G:maj', 'D:7/C', 'G:maj/B'], ['D:7', 'G:maj', 'E:min']]</t>
+          <t>['F', 'C:7', 'F']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['Bb:min', 'Eb:7', 'Ab'], ['Ab', 'Eb:7', 'Ab'], ['Eb:7', 'Ab', 'F:min']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:05.780000', '0:00:12.460000'), ('0:01:08.640000', '0:01:17.380000'), ('0:00:06.840000', '0:00:14.540000')]</t>
+          <t>('0:00:11.210000', '0:00:14.450000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:03.650000', '0:00:06.290000'), ('0:00:25.220000', '0:00:27.170000'), ('0:00:45.320000', '0:00:48.590000')]</t>
+          <t>('0:03:46.620000', '0:03:52.800000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=5.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=68.64', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=6.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-41#t=11.21</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=3.65', 'https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=25.22', 'https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=45.32']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=226.62</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>isophonics_297</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_10</t>
+          <t>schubert-winterreise_142</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['G', 'A:7', 'D'], ['D', 'A', 'D']]</t>
+          <t>['G', 'D', 'G']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['F:maj/G', 'G:7', 'C:maj'], ['C:maj', 'G:maj', 'C:maj']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:27.609000', '0:00:32.201000'), ('0:00:06.536000', '0:00:11.853000')]</t>
+          <t>('0:00:00.421247', '0:00:03.083177')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:29.840000', '0:00:37.200000'), ('0:00:09.920000', '0:00:11.960000')]</t>
+          <t>('0:00:41.080000', '0:00:43.260000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=27.609', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=6.536']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-297#t=0.421247</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=29.84', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=9.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=41.08</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
+          <t>schubert-winterreise_132</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
+          <t>schubert-winterreise_5</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['D#:7/C#', 'G#:maj/C', 'D#:maj/A#']]</t>
+          <t>['F:min/G#', 'G:hdim7/C#', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['A:7', 'D', 'A']]</t>
+          <t>['A:min', 'B:hdim7/D', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:01:02.260000', '0:01:04.580000')]</t>
+          <t>('0:01:45.400000', '0:02:03.260000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:43.926916', '0:00:50.765192')]</t>
+          <t>('0:00:10.940000', '0:00:17.780000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=62.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=105.4</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-162#t=43.926916']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-5#t=10.94</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
-        </is>
-      </c>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_214</t>
+          <t>schubert-winterreise_78</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_235</t>
+          <t>isophonics_43</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj', 'G:maj']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Bb']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:06.360000', '0:00:13.580000')]</t>
+          <t>('0:01:00.760000', '0:01:04.360000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:49.981485', '0:00:59.292687')]</t>
+          <t>('0:00:03.884104', '0:00:23.632675')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-214#t=6.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=60.76</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-235#t=49.981485']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-43#t=3.884104</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_41</t>
+          <t>schubert-winterreise_126</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_19</t>
+          <t>schubert-winterreise_210</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['A:min7', 'D:7', 'G:min7', 'C:7']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['C:min7', 'F:7', 'Bb:min7', 'Eb:7']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:07.980000', '0:00:11.210000')]</t>
+          <t>('0:01:27.660000', '0:01:36.720000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:05.770000', '0:00:07.960000')]</t>
+          <t>('0:00:07.140000', '0:00:14.340000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-41#t=7.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=87.66</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-19#t=5.77']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-210#t=7.14</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>schubert-winterreise_34</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>schubert-winterreise_130</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['C', 'C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>['E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:56.700000', '0:01:59.480000')]</t>
+          <t>('0:04:02.220000', '0:04:09.260000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:24.860000', '0:00:52.580000')]</t>
+          <t>('0:03:52.440000', '0:04:05.220000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=116.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=242.22</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=24.86']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=232.44</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_123</t>
+          <t>isophonics_258</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>schubert-winterreise_149</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7/F', 'F:min']]</t>
+          <t>['C:maj', 'G:maj', 'C:maj', 'G:maj/5']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:14.920000', '0:00:20.760000')]</t>
+          <t>('0:00:31.138000', '0:00:34.969000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:03.820000', '0:00:08.620000')]</t>
+          <t>('0:00:30.020000', '0:00:32.840000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-123#t=14.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-258#t=31.138</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=3.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-149#t=30.02</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
+          <t>schubert-winterreise_63</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_11</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F:maj', 'C:maj/E']]</t>
+          <t>['D#:min', 'A#:7', 'D#:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:02.480000', '0:01:04.920000')]</t>
+          <t>('0:00:25.800000', '0:00:31.820000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:09.860000', '0:01:13.740000')]</t>
+          <t>('0:00:09.100000', '0:00:13.860000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=62.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=25.8</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=69.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=9.1</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_68</t>
+          <t>schubert-winterreise_199</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>schubert-winterreise_1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['A#/F', 'F:7', 'A#']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:08.740000', '0:00:17.660000')]</t>
+          <t>('0:01:03.840000', '0:01:05.240000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:04:31.220000', '0:04:38.420000')]</t>
+          <t>('0:00:19.140000', '0:00:22.240000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-68#t=8.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=63.84</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=271.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-1#t=19.14</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>schubert-winterreise_171</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>schubert-winterreise_168</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj', 'F:min'], ['F:maj', 'C:7', 'F:maj'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>['F#:min', 'B:min/F#', 'F#:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F', 'A#:min'], ['A#/F', 'F:7', 'A#'], ['A#:min/F', 'F:7', 'A#:min']]</t>
+          <t>['A#:min', 'D#:min/A#', 'A#:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:00.340000', '0:00:04.840000'), ('0:00:39.180000', '0:00:53.360000'), ('0:00:07.700000', '0:00:12.060000')]</t>
+          <t>('0:00:01.360000', '0:00:04.740000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:13.360000', '0:00:20.940000'), ('0:04:31.220000', '0:04:38.420000'), ('0:00:24.680000', '0:00:31.240000')]</t>
+          <t>('0:00:25.480000', '0:00:32.800000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=0.34', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=39.18', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=7.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=1.36</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=13.36', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=271.22', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=24.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=25.48</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr"/>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_101</t>
+          <t>schubert-winterreise_22</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['C#', 'F#/5', 'C#']]</t>
+          <t>['D:min', 'A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['C:min/D#', 'G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:01.206300', '0:01:58.925813')]</t>
+          <t>('0:00:20.580000', '0:00:32.500000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:16.020000', '0:00:22.500000')]</t>
+          <t>('0:00:40.080000', '0:00:42.280000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-101#t=1.2063']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-22#t=20.58</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=16.02']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=40.08</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_103</t>
+          <t>isophonics_288</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_207</t>
+          <t>schubert-winterreise_161</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['E', 'B', 'E']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['C:maj', 'G:maj', 'C:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:00.600000', '0:00:11.320000')]</t>
+          <t>('0:00:16.701519', '0:00:23.528185')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:06.980000', '0:00:21.920000')]</t>
+          <t>('0:00:11.860000', '0:00:13.900000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-103#t=0.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-288#t=16.701519</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-207#t=6.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=11.86</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>isophonics_124</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_221</t>
+          <t>schubert-winterreise_209</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
+          <t>['F', 'Bb', 'F']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['C', 'F/5', 'C']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:01.480000', '0:01:03.580000')]</t>
+          <t>('0:00:15.124263', '0:00:20.058503')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:05.121000', '0:00:12.601000')]</t>
+          <t>('0:02:18.800000', '0:02:24.460000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=61.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-124#t=15.124263</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-221#t=5.121']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-209#t=138.8</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_3</t>
+          <t>isophonics_43</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
+          <t>schubert-winterreise_83</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C#:maj', 'G#:7', 'C#:maj', 'G#:7', 'C#:maj']]</t>
+          <t>['E', 'A', 'E', 'A']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:00.480000', '0:00:09.640000')]</t>
+          <t>('0:00:03.884104', '0:00:26.140430')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:21.780000', '0:00:31.740000')]</t>
+          <t>('0:02:12.300000', '0:02:17.480000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=0.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-43#t=3.884104</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-154#t=21.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-83#t=132.3</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_146</t>
+          <t>schubert-winterreise_175</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>schubert-winterreise_20</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['F:7', 'A#:maj/F', 'F:7', 'A#:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>['G:7', 'C:maj/G', 'G:7', 'C:maj/G']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:05.915850', '0:00:14.867142')]</t>
+          <t>('0:01:37.940000', '0:01:48.300000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:58.080000', '0:01:05.660000')]</t>
+          <t>('0:01:26.660000', '0:01:36.120000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-146#t=5.91585']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-175#t=97.94</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=58.08']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-20#t=86.66</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
